--- a/biology/Zoologie/Emydura_macquarii/Emydura_macquarii.xlsx
+++ b/biology/Zoologie/Emydura_macquarii/Emydura_macquarii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emydura macquarii, ou Tortue du Murray, est une espèce de tortue de la famille des Chelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emydura macquarii, ou Tortue du Murray, est une espèce de tortue de la famille des Chelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique d'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique d'Australie.
 Emydura macquarii emmotti se rencontre au Queensland, en Nouvelle-Galles du Sud, dans le nord du Victoria et dans le sud-est de l'Australie-Méridionale ;
 Emydura macquarii krefftii se rencontre au Queensland ;
 Emydura macquarii macquarii se rencontre au Queensland ;
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace des femelles atteint 340 mm et celle des mâles 300 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace des femelles atteint 340 mm et celle des mâles 300 mm.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (20 mai 2011)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (20 mai 2011) :
 Emydura macquarii emmotti Cann, McCord &amp; Joseph-Ouni, 2003
 Emydura macquarii krefftii (Gray, 1871)
 Emydura macquarii macquarii (Gray, 1830)
@@ -610,9 +628,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence à la rivière Macquarie[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence à la rivière Macquarie.
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ahl, 1932 : Beschreibung einer neuen Schildkröte aus Australien. Gesellschaft Naturforschender Freunde zu Berlin, Sitzungsberichte, vol. 1932, p. 127–129.
 Cann, 1998 : Australian Freshwater Turtles. Beaumont Publishing, Singapore.
